--- a/ol-handback/OpenLocalizationOrg/hyperVTest/live/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/live/localization-status.xlsx
@@ -952,7 +952,7 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-01-14 12:31:45</t>
+    <t>2016-01-14 12:35:32</t>
   </si>
   <si>
     <t>3d3f98ee3495a340c7fb56e15f900aa719ebc15e.xlf</t>
@@ -1018,7 +1018,7 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-14 12:31:53</t>
+    <t>2016-01-14 12:35:40</t>
   </si>
   <si>
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.de-de.xlf</t>
@@ -1072,7 +1072,7 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-01-14 12:32:00</t>
+    <t>2016-01-14 12:35:47</t>
   </si>
   <si>
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.fr-fr.xlf</t>
@@ -1204,7 +1204,7 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-14 12:32:08</t>
+    <t>2016-01-14 12:35:54</t>
   </si>
   <si>
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf</t>
@@ -1336,7 +1336,7 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-01-14 12:32:15</t>
+    <t>2016-01-14 12:36:01</t>
   </si>
   <si>
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/live/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/live/localization-status.xlsx
@@ -952,7 +952,7 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-01-14 12:35:32</t>
+    <t>2016-01-14 12:39:40</t>
   </si>
   <si>
     <t>3d3f98ee3495a340c7fb56e15f900aa719ebc15e.xlf</t>
@@ -1018,7 +1018,7 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-14 12:35:40</t>
+    <t>2016-01-14 12:39:48</t>
   </si>
   <si>
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.de-de.xlf</t>
@@ -1072,7 +1072,7 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-01-14 12:35:47</t>
+    <t>2016-01-14 12:39:55</t>
   </si>
   <si>
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.fr-fr.xlf</t>
@@ -1204,7 +1204,7 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-14 12:35:54</t>
+    <t>2016-01-14 12:40:02</t>
   </si>
   <si>
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf</t>
@@ -1336,7 +1336,7 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-01-14 12:36:01</t>
+    <t>2016-01-14 12:40:10</t>
   </si>
   <si>
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/live/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/live/localization-status.xlsx
@@ -1201,7 +1201,7 @@
     <t>2016-01-27 05:45:55</t>
   </si>
   <si>
-    <t>2016-01-27 06:15:57</t>
+    <t>2016-02-22 08:58:10</t>
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/live/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/live/localization-status.xlsx
@@ -1201,7 +1201,7 @@
     <t>2016-01-27 05:45:55</t>
   </si>
   <si>
-    <t>2016-02-22 08:58:10</t>
+    <t>2016-02-22 08:59:05</t>
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/live/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/live/localization-status.xlsx
@@ -1201,7 +1201,7 @@
     <t>2016-01-27 05:45:55</t>
   </si>
   <si>
-    <t>2016-02-22 08:59:05</t>
+    <t>2016-02-22 09:00:01</t>
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
